--- a/example_data/EMA/label_corrected/diacomit-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/diacomit-epar-product-information_en.xlsx
@@ -1297,7 +1297,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>renal || hepatic || warnings</t>
+          <t>hepatic || renal || warnings</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
